--- a/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
+++ b/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D826F826-7B58-4E47-8E3F-02FFC477E914}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5EC1086A-2CE9-465E-BFB1-6ACF56C18694}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="2" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowNoCFPC" r:id="rId1" sheetId="1"/>
+    <sheet name="PayNowNoCFPS" r:id="rId2" sheetId="2"/>
+    <sheet name="PayNowNoCFCorp" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
   <si>
     <t>Result</t>
   </si>
@@ -90,16 +92,34 @@
     <t>1</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Tue Oct 22 12:40:38 IST 2024</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Tue Oct 22 12:57:02 IST 2024</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 21:49:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 22:10:32 IST 2024</t>
+    <t>Mon Oct 28 18:44:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 30 14:34:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 30 15:09:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 30 15:43:35 IST 2024</t>
   </si>
 </sst>
 </file>
@@ -440,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,10 +515,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -523,7 +543,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
@@ -539,4 +559,274 @@
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31792679-2814-4031-94D5-F81C214E87F1}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3F18C-9D20-495D-9813-3EBF52ED12D9}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
+++ b/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5EC1086A-2CE9-465E-BFB1-6ACF56C18694}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2D921821-47E0-4248-A0EE-62C01A5B10EC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="8" firstSheet="5" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowNoCFPC" r:id="rId1" sheetId="1"/>
     <sheet name="PayNowNoCFPS" r:id="rId2" sheetId="2"/>
     <sheet name="PayNowNoCFCorp" r:id="rId3" sheetId="3"/>
+    <sheet name="PayNowSCFPC" r:id="rId4" sheetId="4"/>
+    <sheet name="PayNowSCFPS" r:id="rId5" sheetId="5"/>
+    <sheet name="PayNowSCFCorp" r:id="rId6" sheetId="6"/>
+    <sheet name="PayNowDCFPC" r:id="rId7" sheetId="7"/>
+    <sheet name="PayNowDCFPS" r:id="rId8" sheetId="8"/>
+    <sheet name="PayNowDCFCorp" r:id="rId9" sheetId="9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="41">
   <si>
     <t>Result</t>
   </si>
@@ -95,31 +101,61 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Tue Oct 22 12:40:38 IST 2024</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Tue Oct 22 12:57:02 IST 2024</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:33:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:34:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:42:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:46:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:49:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 17:52:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Nov 18 18:51:35 IST 2024</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Mon Oct 28 18:44:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 30 14:34:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 30 15:09:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 30 15:43:35 IST 2024</t>
+    <t>Mon Nov 18 19:16:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Mon Nov 18 19:21:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Nov 18 19:58:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 28 13:05:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 28 16:42:54 IST 2024</t>
   </si>
 </sst>
 </file>
@@ -461,7 +497,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,7 +554,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -547,10 +583,10 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +602,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -660,7 +696,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -700,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3F18C-9D20-495D-9813-3EBF52ED12D9}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,7 +831,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -823,6 +859,600 @@
         <v>18</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C787DE57-842A-41F3-A622-37CAD141F86A}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D9E566-D549-4290-8382-839D19B358D4}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A1626C-D7FE-41AC-B701-168C96807B23}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDBB12C-A1A3-4DC3-80BE-B879BD79EAD4}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84570EB-6A55-4CD3-91DD-65D15A5DA7B9}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E0D7D6-07EB-4231-93F6-ED08F4FB8116}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
+++ b/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2D921821-47E0-4248-A0EE-62C01A5B10EC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4597F348-9E9C-42F3-8BCF-9C6BDB501564}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="8" firstSheet="5" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="26" firstSheet="24" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowNoCFPC" r:id="rId1" sheetId="1"/>
@@ -22,6 +22,24 @@
     <sheet name="PayNowDCFPC" r:id="rId7" sheetId="7"/>
     <sheet name="PayNowDCFPS" r:id="rId8" sheetId="8"/>
     <sheet name="PayNowDCFCorp" r:id="rId9" sheetId="9"/>
+    <sheet name="SCFPSVerbiage" r:id="rId10" sheetId="10"/>
+    <sheet name="SCFPCVerbiage" r:id="rId11" sheetId="11"/>
+    <sheet name="SCFCorpVerbiage" r:id="rId12" sheetId="12"/>
+    <sheet name="DCFPSVerbiage" r:id="rId13" sheetId="13"/>
+    <sheet name="DCFPCVerbiage" r:id="rId14" sheetId="14"/>
+    <sheet name="DCFCorpVerbiage" r:id="rId15" sheetId="15"/>
+    <sheet name="CMCAutopayPS" r:id="rId16" sheetId="16"/>
+    <sheet name="CMCAutoPayPC" r:id="rId17" sheetId="17"/>
+    <sheet name="CMCAutoPayCorp" r:id="rId18" sheetId="18"/>
+    <sheet name="CCDeferredPS" r:id="rId19" sheetId="19"/>
+    <sheet name="CCDeferredPC" r:id="rId20" sheetId="20"/>
+    <sheet name="CCDeferredCorp" r:id="rId21" sheetId="21"/>
+    <sheet name="NoModifyAmountPC" r:id="rId22" sheetId="22"/>
+    <sheet name="NoModifyAmountPS" r:id="rId23" sheetId="23"/>
+    <sheet name="NoModifyAmountCorp" r:id="rId24" sheetId="24"/>
+    <sheet name="NoModifyBillingAddressPC" r:id="rId25" sheetId="25"/>
+    <sheet name="NoModifyBillingAddressPS" r:id="rId26" sheetId="26"/>
+    <sheet name="NoModifyBillingAddressCorp" r:id="rId27" sheetId="27"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="60">
   <si>
     <t>Result</t>
   </si>
@@ -131,31 +149,88 @@
     <t>Tue Nov 12 17:52:17 IST 2024</t>
   </si>
   <si>
-    <t>Mon Nov 18 18:51:35 IST 2024</t>
-  </si>
-  <si>
     <t>883</t>
   </si>
   <si>
+    <t>Mon Nov 18 19:16:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Mon Nov 18 19:21:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 28 16:42:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Dec 04 14:45:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Dec 04 15:56:26 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Dec 04 16:04:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Dec 05 16:00:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Dec 05 16:06:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Dec 05 16:11:07 IST 2024</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Tue Dec 17 15:47:30 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 17 17:02:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 17 17:33:30 IST 2024</t>
+  </si>
+  <si>
+    <t>12/31/2025</t>
+  </si>
+  <si>
+    <t>Mon Dec 30 16:45:21 IST 2024</t>
+  </si>
+  <si>
+    <t>12/31/2026</t>
+  </si>
+  <si>
+    <t>Mon Dec 30 21:19:03 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Dec 30 21:41:20 IST 2024</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>Fri Jan 03 22:25:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 03 22:35:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 03 22:51:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 06 17:02:30 IST 2025</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Mon Nov 18 19:16:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Mon Nov 18 19:21:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Nov 18 19:58:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 28 13:05:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 28 16:42:54 IST 2024</t>
+    <t>Mon Jan 06 17:08:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 06 17:13:49 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -497,7 +572,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,12 +672,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31792679-2814-4031-94D5-F81C214E87F1}">
-  <dimension ref="A1:O3"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4906B75B-52A2-4286-8E49-5AC0D3846EF6}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,6 +731,998 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8CFE94-49D0-484F-8EA4-D25F286F5569}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAC6231-DFFA-4867-A2C5-E804FC85451E}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F82C58E-06FC-4FC1-A08F-B42071E415C5}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1142462-EBF3-4DC6-A60C-82C83F380CA2}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDD6D56-27E0-426C-B504-18A7A35ECE43}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8655E4-5A57-47F0-9C21-BF6A0B57A685}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A154E49-E158-4463-B5C3-6CDEA93CBDB2}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEC2CC9-16AB-47E7-916A-C86EFB95B8FF}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB20633-2C53-43C5-A793-14D961E78E27}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31792679-2814-4031-94D5-F81C214E87F1}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="3"/>
@@ -724,6 +1791,796 @@
         <v>18</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799F2BD1-FD78-448F-ADE0-45642B43D84A}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FE3965-D54B-4EAB-9FD8-877E447C190D}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row ht="29" r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AD100D-0DBC-45F3-A121-6F02543E9C7F}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7265625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B1942B-E20C-4A56-9017-395FE3466CCA}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800664F6-7B82-4E54-A9A3-002FB30EA5CC}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFA7D1E-C4C8-4F11-85C1-FED8E36A55A8}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0002C261-402A-419B-8856-C464A90C3C50}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2342668C-48CF-464B-9A5B-74841457CAE0}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -971,7 +2828,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1169,7 +3026,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1223,7 +3080,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1233,7 +3090,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -1268,7 +3125,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1319,10 +3176,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1332,7 +3189,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -1366,8 +3223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E0D7D6-07EB-4231-93F6-ED08F4FB8116}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1418,10 +3275,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1431,7 +3288,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>

--- a/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
+++ b/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="66">
   <si>
     <t>Result</t>
   </si>
@@ -231,6 +231,24 @@
   </si>
   <si>
     <t>Mon Jan 06 17:13:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 13:47:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 13:48:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 13:52:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 13:53:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:05:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:06:11 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -731,7 +749,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2981,7 +2999,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3275,10 +3293,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
+++ b/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="69">
   <si>
     <t>Result</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>Fri Jan 24 14:06:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 18:27:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 18:28:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 05 18:31:31 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2278,7 +2287,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2472,7 +2481,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
+++ b/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="98">
   <si>
     <t>Result</t>
   </si>
@@ -258,6 +258,93 @@
   </si>
   <si>
     <t>Wed Feb 05 18:31:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:21:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:23:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:24:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:28:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:30:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:31:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:34:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:36:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:37:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:39:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:41:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:42:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:44:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:45:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:47:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:54:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:56:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:57:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 17:59:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:00:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:01:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:03:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:04:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:05:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:06:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:07:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:08:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:52:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:55:20 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -656,7 +743,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -758,7 +845,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -857,7 +944,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -956,7 +1043,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1055,7 +1142,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1154,7 +1241,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1253,7 +1340,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1352,7 +1439,7 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1448,10 +1535,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1547,10 +1634,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1649,7 +1736,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1750,7 +1837,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1888,7 +1975,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1989,7 +2076,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2093,7 +2180,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2190,7 +2277,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2287,7 +2374,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2384,7 +2471,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2481,7 +2568,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2675,7 +2762,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2810,7 +2897,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2909,7 +2996,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3008,7 +3095,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3107,7 +3194,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3203,10 +3290,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3305,7 +3392,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
+++ b/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="101">
   <si>
     <t>Result</t>
   </si>
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t>Wed Mar 26 18:55:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 20:52:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 20:56:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 20:57:48 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2762,7 +2771,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3389,10 +3398,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
+++ b/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="130">
   <si>
     <t>Result</t>
   </si>
@@ -345,6 +345,102 @@
   </si>
   <si>
     <t>Wed Mar 26 18:55:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:40:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:42:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:45:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:46:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:48:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:49:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:52:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:52:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:58:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 23:59:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 00:01:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 00:02:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 00:04:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 00:04:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 00:06:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 04 00:06:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:32:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:33:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:37:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:38:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:40:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:41:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:44:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:44:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:51:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:52:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:54:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:55:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:57:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:57:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 00:59:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jun 25 01:00:05 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -743,7 +839,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -845,7 +941,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -944,7 +1040,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1142,7 +1238,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1241,7 +1337,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1436,10 +1532,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1538,7 +1634,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1837,7 +1933,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2180,7 +2276,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2277,7 +2373,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2471,7 +2567,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2568,7 +2664,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2897,7 +2993,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2996,7 +3092,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3194,7 +3290,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3293,7 +3389,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
+++ b/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="110">
   <si>
     <t>Result</t>
   </si>
@@ -354,6 +354,33 @@
   </si>
   <si>
     <t>Wed Jun 04 20:57:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jul 04 15:37:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 07 14:17:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 07 14:18:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 07 14:23:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 07 14:23:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 07 14:26:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 07 14:28:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 07 14:29:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jul 07 14:32:15 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1079,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1349,7 +1376,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2383,7 +2410,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2771,7 +2798,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3104,7 +3131,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
+++ b/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\IWPBootstrapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4597F348-9E9C-42F3-8BCF-9C6BDB501564}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2FA79759-8B2F-4BB8-B2BC-C584E9741DE3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="26" firstSheet="24" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="15" firstSheet="14" windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowNoCFPC" r:id="rId1" sheetId="1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="118">
   <si>
     <t>Result</t>
   </si>
@@ -131,256 +131,280 @@
     <t>4</t>
   </si>
   <si>
-    <t>Tue Nov 12 17:33:16 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:34:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:42:00 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:46:00 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:49:41 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 17:52:17 IST 2024</t>
-  </si>
-  <si>
     <t>883</t>
   </si>
   <si>
-    <t>Mon Nov 18 19:16:29 IST 2024</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Mon Nov 18 19:21:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 28 16:42:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Dec 04 14:45:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Dec 04 15:56:26 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Dec 04 16:04:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Dec 05 16:00:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Dec 05 16:06:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Dec 05 16:11:07 IST 2024</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>Tue Dec 17 15:47:30 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 17 17:02:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 17 17:33:30 IST 2024</t>
-  </si>
-  <si>
     <t>12/31/2025</t>
   </si>
   <si>
-    <t>Mon Dec 30 16:45:21 IST 2024</t>
-  </si>
-  <si>
     <t>12/31/2026</t>
   </si>
   <si>
-    <t>Mon Dec 30 21:19:03 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Dec 30 21:41:20 IST 2024</t>
-  </si>
-  <si>
     <t>887</t>
   </si>
   <si>
-    <t>Fri Jan 03 22:25:51 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 03 22:35:15 IST 2025</t>
-  </si>
-  <si>
     <t>Fri Jan 03 22:51:57 IST 2025</t>
   </si>
   <si>
-    <t>Mon Jan 06 17:02:30 IST 2025</t>
+    <t>Wed Mar 26 17:31:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:52:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Mar 26 18:55:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:28:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:30:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:31:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:44:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:46:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:49:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:50:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:50:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:52:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:53:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 00:54:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:00:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:02:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:03:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:04:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:05:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:06:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:08:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:08:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:09:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:10:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:11:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 01:12:02 IST 2025</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Mon Jan 06 17:08:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 06 17:13:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 13:47:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 13:48:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 13:52:40 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 13:53:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:05:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:06:11 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 18:27:01 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 18:28:23 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 05 18:31:31 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:21:47 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:23:10 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:24:27 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:28:16 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:30:03 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:31:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:34:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:36:06 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:37:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:39:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:41:09 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:42:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:44:50 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:45:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:47:05 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:54:53 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:56:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:57:15 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 17:59:32 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 18:00:39 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 18:01:49 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 18:03:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 18:04:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 18:05:25 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 18:06:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 18:07:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 18:08:55 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 18:52:38 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Mar 26 18:55:20 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 04 20:52:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 04 20:56:12 IST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jun 04 20:57:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jul 04 15:37:48 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jul 07 14:17:04 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jul 07 14:18:14 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jul 07 14:23:22 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jul 07 14:23:59 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jul 07 14:26:02 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jul 07 14:28:36 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jul 07 14:29:44 IST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jul 07 14:32:15 IST 2025</t>
+    <t>Fri Aug 29 22:56:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 22:57:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 22:58:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:07:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:08:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:08:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:10:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:11:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:12:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:14:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:15:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:16:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:22:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:23:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:23:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:25:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:26:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:27:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:28:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:29:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:29:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:31:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:31:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 23:32:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 01:16:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 01:17:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 01:19:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 09:07:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 09:08:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 09:10:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:11:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:12:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:14:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:16:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:20:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:23:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:24:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:25:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:27:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:28:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:29:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:31:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:32:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:33:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:38:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:39:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:40:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:43:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:44:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:45:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:47:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:47:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:48:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:49:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:50:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 11:51:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 13:16:52 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -779,7 +803,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -881,7 +905,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -980,7 +1004,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1079,7 +1103,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1178,7 +1202,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1188,7 +1212,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -1277,7 +1301,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1287,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -1376,7 +1400,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1386,7 +1410,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -1418,13 +1442,16 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8655E4-5A57-47F0-9C21-BF6A0B57A685}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.36328125" collapsed="true"/>
+  </cols>
   <sheetData>
     <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1472,17 +1499,17 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -1507,6 +1534,45 @@
         <v>23</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1524,6 +1590,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.36328125" collapsed="true"/>
+  </cols>
   <sheetData>
     <row ht="29" r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1574,14 +1643,14 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -1670,17 +1739,17 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -1772,7 +1841,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1800,7 +1869,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>18</v>
@@ -1870,10 +1939,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2011,7 +2080,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2039,7 +2108,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>23</v>
@@ -2112,7 +2181,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2140,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>18</v>
@@ -2216,7 +2285,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2226,7 +2295,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -2313,7 +2382,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2323,7 +2392,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -2410,7 +2479,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2420,7 +2489,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -2507,7 +2576,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2517,7 +2586,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -2604,7 +2673,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2614,7 +2683,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -2646,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2342668C-48CF-464B-9A5B-74841457CAE0}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2701,7 +2770,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2711,7 +2780,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -2798,7 +2867,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2933,7 +3002,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3032,7 +3101,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3131,7 +3200,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3230,7 +3299,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3240,7 +3309,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -3329,7 +3398,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3339,7 +3408,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -3425,10 +3494,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3438,7 +3507,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>

--- a/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
+++ b/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="166">
   <si>
     <t>Result</t>
   </si>
@@ -405,6 +405,150 @@
   </si>
   <si>
     <t>Tue Sep 02 13:16:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 00:29:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 00:30:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 00:32:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 00:36:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 00:49:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:13:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:14:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:15:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:18:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:19:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:20:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:23:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:24:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:25:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:35:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:37:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:39:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:41:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:44:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:46:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:48:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:50:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:52:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:54:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:56:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 01:58:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:06:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:07:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:08:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:11:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:20:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:22:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:24:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:26:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:28:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:30:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:32:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:34:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:36:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:38:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:40:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:42:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:46:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:47:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:47:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:49:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:50:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 18 02:51:15 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -803,7 +947,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -905,7 +1049,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1004,7 +1148,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1103,7 +1247,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1202,7 +1346,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1301,7 +1445,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1400,7 +1544,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1539,10 +1683,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1643,7 +1787,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1742,7 +1886,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1841,7 +1985,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -1939,10 +2083,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2080,7 +2224,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2181,7 +2325,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2285,7 +2429,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2382,7 +2526,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2479,7 +2623,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2576,7 +2720,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2673,7 +2817,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2867,7 +3011,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -2999,10 +3143,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3098,10 +3242,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3197,10 +3341,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3296,10 +3440,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3395,10 +3539,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
@@ -3494,10 +3638,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">

--- a/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
+++ b/KatalonData/IWPBootstrapData/vRelayPaymentsACH.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="167">
   <si>
     <t>Result</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>Tue Nov 18 02:51:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 21 21:53:16 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1883,10 +1886,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="1" t="s">
